--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cort-Ghsr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cort-Ghsr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Cort</t>
+  </si>
+  <si>
+    <t>Ghsr</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Cort</t>
-  </si>
-  <si>
-    <t>Ghsr</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -546,10 +549,10 @@
         <v>1.444561</v>
       </c>
       <c r="I2">
-        <v>0.9529357361208413</v>
+        <v>0.7789994499509271</v>
       </c>
       <c r="J2">
-        <v>0.9529357361208413</v>
+        <v>0.7789994499509271</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +561,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2864683333333333</v>
+        <v>0.05058633333333334</v>
       </c>
       <c r="N2">
-        <v>0.859405</v>
+        <v>0.151759</v>
       </c>
       <c r="O2">
-        <v>0.07653612378937995</v>
+        <v>0.0134081080006538</v>
       </c>
       <c r="P2">
-        <v>0.07653612378937995</v>
+        <v>0.0134081080006538</v>
       </c>
       <c r="Q2">
-        <v>0.1379403273561111</v>
+        <v>0.02435834808877778</v>
       </c>
       <c r="R2">
-        <v>1.241462946205</v>
+        <v>0.219225132799</v>
       </c>
       <c r="S2">
-        <v>0.07293400746306861</v>
+        <v>0.01044490875739193</v>
       </c>
       <c r="T2">
-        <v>0.07293400746306861</v>
+        <v>0.01044490875739193</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +611,10 @@
         <v>1.444561</v>
       </c>
       <c r="I3">
-        <v>0.9529357361208413</v>
+        <v>0.7789994499509271</v>
       </c>
       <c r="J3">
-        <v>0.9529357361208413</v>
+        <v>0.7789994499509271</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,16 +623,16 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.423945999999999</v>
+        <v>2.423946</v>
       </c>
       <c r="N3">
-        <v>7.271837999999999</v>
+        <v>7.271838</v>
       </c>
       <c r="O3">
-        <v>0.647608861182233</v>
+        <v>0.6424764875049145</v>
       </c>
       <c r="P3">
-        <v>0.6476088611822332</v>
+        <v>0.6424764875049145</v>
       </c>
       <c r="Q3">
         <v>1.167179285902</v>
@@ -638,10 +641,10 @@
         <v>10.504613573118</v>
       </c>
       <c r="S3">
-        <v>0.6171296268490709</v>
+        <v>0.5004888303727321</v>
       </c>
       <c r="T3">
-        <v>0.617129626849071</v>
+        <v>0.5004888303727321</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -670,40 +673,40 @@
         <v>1.444561</v>
       </c>
       <c r="I4">
-        <v>0.9529357361208413</v>
+        <v>0.7789994499509271</v>
       </c>
       <c r="J4">
-        <v>0.9529357361208413</v>
+        <v>0.7789994499509271</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2710936666666667</v>
+        <v>0.522662</v>
       </c>
       <c r="N4">
-        <v>0.813281</v>
+        <v>1.567986</v>
       </c>
       <c r="O4">
-        <v>0.07242845374596461</v>
+        <v>0.1385336331388131</v>
       </c>
       <c r="P4">
-        <v>0.07242845374596461</v>
+        <v>0.1385336331388132</v>
       </c>
       <c r="Q4">
-        <v>0.1305371127378889</v>
+        <v>0.2516723804606667</v>
       </c>
       <c r="R4">
-        <v>1.174834014641</v>
+        <v>2.265051424146</v>
       </c>
       <c r="S4">
-        <v>0.06901966188650509</v>
+        <v>0.107917624014839</v>
       </c>
       <c r="T4">
-        <v>0.06901966188650509</v>
+        <v>0.107917624014839</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -732,40 +735,40 @@
         <v>1.444561</v>
       </c>
       <c r="I5">
-        <v>0.9529357361208413</v>
+        <v>0.7789994499509271</v>
       </c>
       <c r="J5">
-        <v>0.9529357361208413</v>
+        <v>0.7789994499509271</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.4501426666666666</v>
+        <v>0.09855700000000001</v>
       </c>
       <c r="N5">
-        <v>1.350428</v>
+        <v>0.295671</v>
       </c>
       <c r="O5">
-        <v>0.1202652120672381</v>
+        <v>0.02612292319177979</v>
       </c>
       <c r="P5">
-        <v>0.1202652120672381</v>
+        <v>0.02612292319177979</v>
       </c>
       <c r="Q5">
-        <v>0.2167528469008889</v>
+        <v>0.04745719949233334</v>
       </c>
       <c r="R5">
-        <v>1.950775622108</v>
+        <v>0.4271147954310001</v>
       </c>
       <c r="S5">
-        <v>0.1146050183910226</v>
+        <v>0.02034974279750677</v>
       </c>
       <c r="T5">
-        <v>0.1146050183910226</v>
+        <v>0.02034974279750677</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -794,72 +797,72 @@
         <v>1.444561</v>
       </c>
       <c r="I6">
-        <v>0.9529357361208413</v>
+        <v>0.7789994499509271</v>
       </c>
       <c r="J6">
-        <v>0.9529357361208413</v>
+        <v>0.7789994499509271</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.311266</v>
+        <v>0.6060016666666667</v>
       </c>
       <c r="N6">
-        <v>0.9337979999999999</v>
+        <v>1.818005</v>
       </c>
       <c r="O6">
-        <v>0.08316134921518425</v>
+        <v>0.1606231418612973</v>
       </c>
       <c r="P6">
-        <v>0.08316134921518424</v>
+        <v>0.1606231418612973</v>
       </c>
       <c r="Q6">
-        <v>0.1498809080753333</v>
+        <v>0.2918021245338889</v>
       </c>
       <c r="R6">
-        <v>1.348928172678</v>
+        <v>2.626219120805</v>
       </c>
       <c r="S6">
-        <v>0.07924742153117395</v>
+        <v>0.1251253391593403</v>
       </c>
       <c r="T6">
-        <v>0.07924742153117394</v>
+        <v>0.1251253391593403</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.02378166666666667</v>
+        <v>0.4815203333333334</v>
       </c>
       <c r="H7">
-        <v>0.07134500000000001</v>
+        <v>1.444561</v>
       </c>
       <c r="I7">
-        <v>0.04706426387915874</v>
+        <v>0.7789994499509271</v>
       </c>
       <c r="J7">
-        <v>0.04706426387915873</v>
+        <v>0.7789994499509271</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,28 +871,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.2864683333333333</v>
+        <v>0.07106366666666666</v>
       </c>
       <c r="N7">
-        <v>0.859405</v>
+        <v>0.213191</v>
       </c>
       <c r="O7">
-        <v>0.07653612378937995</v>
+        <v>0.01883570630254142</v>
       </c>
       <c r="P7">
-        <v>0.07653612378937995</v>
+        <v>0.01883570630254142</v>
       </c>
       <c r="Q7">
-        <v>0.00681269441388889</v>
+        <v>0.03421860046122222</v>
       </c>
       <c r="R7">
-        <v>0.06131424972500001</v>
+        <v>0.307967404151</v>
       </c>
       <c r="S7">
-        <v>0.003602116326311337</v>
+        <v>0.01467300484911698</v>
       </c>
       <c r="T7">
-        <v>0.003602116326311336</v>
+        <v>0.01467300484911698</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -912,46 +915,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.02378166666666667</v>
+        <v>0.054895</v>
       </c>
       <c r="H8">
-        <v>0.07134500000000001</v>
+        <v>0.164685</v>
       </c>
       <c r="I8">
-        <v>0.04706426387915874</v>
+        <v>0.08880865841952565</v>
       </c>
       <c r="J8">
-        <v>0.04706426387915873</v>
+        <v>0.08880865841952565</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>2.423945999999999</v>
+        <v>0.05058633333333334</v>
       </c>
       <c r="N8">
-        <v>7.271837999999999</v>
+        <v>0.151759</v>
       </c>
       <c r="O8">
-        <v>0.647608861182233</v>
+        <v>0.0134081080006538</v>
       </c>
       <c r="P8">
-        <v>0.6476088611822332</v>
+        <v>0.0134081080006538</v>
       </c>
       <c r="Q8">
-        <v>0.05764547579</v>
+        <v>0.002776936768333333</v>
       </c>
       <c r="R8">
-        <v>0.51880928211</v>
+        <v>0.024992430915</v>
       </c>
       <c r="S8">
-        <v>0.0304792343331621</v>
+        <v>0.001190756083482172</v>
       </c>
       <c r="T8">
-        <v>0.0304792343331621</v>
+        <v>0.001190756083482172</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -974,46 +977,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.02378166666666667</v>
+        <v>0.054895</v>
       </c>
       <c r="H9">
-        <v>0.07134500000000001</v>
+        <v>0.164685</v>
       </c>
       <c r="I9">
-        <v>0.04706426387915874</v>
+        <v>0.08880865841952565</v>
       </c>
       <c r="J9">
-        <v>0.04706426387915873</v>
+        <v>0.08880865841952565</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2710936666666667</v>
+        <v>2.423946</v>
       </c>
       <c r="N9">
-        <v>0.813281</v>
+        <v>7.271838</v>
       </c>
       <c r="O9">
-        <v>0.07242845374596461</v>
+        <v>0.6424764875049145</v>
       </c>
       <c r="P9">
-        <v>0.07242845374596461</v>
+        <v>0.6424764875049145</v>
       </c>
       <c r="Q9">
-        <v>0.006447059216111112</v>
+        <v>0.13306251567</v>
       </c>
       <c r="R9">
-        <v>0.058023532945</v>
+        <v>1.19756264103</v>
       </c>
       <c r="S9">
-        <v>0.003408791859459522</v>
+        <v>0.05705747492140059</v>
       </c>
       <c r="T9">
-        <v>0.003408791859459521</v>
+        <v>0.05705747492140059</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1036,46 +1039,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.02378166666666667</v>
+        <v>0.054895</v>
       </c>
       <c r="H10">
-        <v>0.07134500000000001</v>
+        <v>0.164685</v>
       </c>
       <c r="I10">
-        <v>0.04706426387915874</v>
+        <v>0.08880865841952565</v>
       </c>
       <c r="J10">
-        <v>0.04706426387915873</v>
+        <v>0.08880865841952565</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.4501426666666666</v>
+        <v>0.522662</v>
       </c>
       <c r="N10">
-        <v>1.350428</v>
+        <v>1.567986</v>
       </c>
       <c r="O10">
-        <v>0.1202652120672381</v>
+        <v>0.1385336331388131</v>
       </c>
       <c r="P10">
-        <v>0.1202652120672381</v>
+        <v>0.1385336331388132</v>
       </c>
       <c r="Q10">
-        <v>0.01070514285111111</v>
+        <v>0.02869153049</v>
       </c>
       <c r="R10">
-        <v>0.09634628566</v>
+        <v>0.25822377441</v>
       </c>
       <c r="S10">
-        <v>0.005660193676215481</v>
+        <v>0.01230298610504073</v>
       </c>
       <c r="T10">
-        <v>0.00566019367621548</v>
+        <v>0.01230298610504074</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1086,557 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.054895</v>
+      </c>
+      <c r="H11">
+        <v>0.164685</v>
+      </c>
+      <c r="I11">
+        <v>0.08880865841952565</v>
+      </c>
+      <c r="J11">
+        <v>0.08880865841952565</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.09855700000000001</v>
+      </c>
+      <c r="N11">
+        <v>0.295671</v>
+      </c>
+      <c r="O11">
+        <v>0.02612292319177979</v>
+      </c>
+      <c r="P11">
+        <v>0.02612292319177979</v>
+      </c>
+      <c r="Q11">
+        <v>0.005410286515</v>
+      </c>
+      <c r="R11">
+        <v>0.048692578635</v>
+      </c>
+      <c r="S11">
+        <v>0.002319941762658276</v>
+      </c>
+      <c r="T11">
+        <v>0.002319941762658276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.054895</v>
+      </c>
+      <c r="H12">
+        <v>0.164685</v>
+      </c>
+      <c r="I12">
+        <v>0.08880865841952565</v>
+      </c>
+      <c r="J12">
+        <v>0.08880865841952565</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.6060016666666667</v>
+      </c>
+      <c r="N12">
+        <v>1.818005</v>
+      </c>
+      <c r="O12">
+        <v>0.1606231418612973</v>
+      </c>
+      <c r="P12">
+        <v>0.1606231418612973</v>
+      </c>
+      <c r="Q12">
+        <v>0.03326646149166666</v>
+      </c>
+      <c r="R12">
+        <v>0.299398153425</v>
+      </c>
+      <c r="S12">
+        <v>0.01426472573983096</v>
+      </c>
+      <c r="T12">
+        <v>0.01426472573983096</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.054895</v>
+      </c>
+      <c r="H13">
+        <v>0.164685</v>
+      </c>
+      <c r="I13">
+        <v>0.08880865841952565</v>
+      </c>
+      <c r="J13">
+        <v>0.08880865841952565</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.07106366666666666</v>
+      </c>
+      <c r="N13">
+        <v>0.213191</v>
+      </c>
+      <c r="O13">
+        <v>0.01883570630254142</v>
+      </c>
+      <c r="P13">
+        <v>0.01883570630254142</v>
+      </c>
+      <c r="Q13">
+        <v>0.003901039981666667</v>
+      </c>
+      <c r="R13">
+        <v>0.035109359835</v>
+      </c>
+      <c r="S13">
+        <v>0.001672773807112908</v>
+      </c>
+      <c r="T13">
+        <v>0.001672773807112908</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.08171133333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.245134</v>
+      </c>
+      <c r="I14">
+        <v>0.1321918916295473</v>
+      </c>
+      <c r="J14">
+        <v>0.1321918916295473</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.05058633333333334</v>
+      </c>
+      <c r="N14">
+        <v>0.151759</v>
+      </c>
+      <c r="O14">
+        <v>0.0134081080006538</v>
+      </c>
+      <c r="P14">
+        <v>0.0134081080006538</v>
+      </c>
+      <c r="Q14">
+        <v>0.004133476745111111</v>
+      </c>
+      <c r="R14">
+        <v>0.037201290706</v>
+      </c>
+      <c r="S14">
+        <v>0.001772443159779694</v>
+      </c>
+      <c r="T14">
+        <v>0.001772443159779694</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.08171133333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.245134</v>
+      </c>
+      <c r="I15">
+        <v>0.1321918916295473</v>
+      </c>
+      <c r="J15">
+        <v>0.1321918916295473</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.423946</v>
+      </c>
+      <c r="N15">
+        <v>7.271838</v>
+      </c>
+      <c r="O15">
+        <v>0.6424764875049145</v>
+      </c>
+      <c r="P15">
+        <v>0.6424764875049145</v>
+      </c>
+      <c r="Q15">
+        <v>0.198063859588</v>
+      </c>
+      <c r="R15">
+        <v>1.782574736292</v>
+      </c>
+      <c r="S15">
+        <v>0.08493018221078188</v>
+      </c>
+      <c r="T15">
+        <v>0.08493018221078188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.02378166666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.07134500000000001</v>
-      </c>
-      <c r="I11">
-        <v>0.04706426387915874</v>
-      </c>
-      <c r="J11">
-        <v>0.04706426387915873</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.311266</v>
-      </c>
-      <c r="N11">
-        <v>0.9337979999999999</v>
-      </c>
-      <c r="O11">
-        <v>0.08316134921518425</v>
-      </c>
-      <c r="P11">
-        <v>0.08316134921518424</v>
-      </c>
-      <c r="Q11">
-        <v>0.007402424256666667</v>
-      </c>
-      <c r="R11">
-        <v>0.06662181831</v>
-      </c>
-      <c r="S11">
-        <v>0.003913927684010303</v>
-      </c>
-      <c r="T11">
-        <v>0.003913927684010301</v>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.08171133333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.245134</v>
+      </c>
+      <c r="I16">
+        <v>0.1321918916295473</v>
+      </c>
+      <c r="J16">
+        <v>0.1321918916295473</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.522662</v>
+      </c>
+      <c r="N16">
+        <v>1.567986</v>
+      </c>
+      <c r="O16">
+        <v>0.1385336331388131</v>
+      </c>
+      <c r="P16">
+        <v>0.1385336331388132</v>
+      </c>
+      <c r="Q16">
+        <v>0.04270740890266666</v>
+      </c>
+      <c r="R16">
+        <v>0.3843666801239999</v>
+      </c>
+      <c r="S16">
+        <v>0.01831302301893345</v>
+      </c>
+      <c r="T16">
+        <v>0.01831302301893346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.08171133333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.245134</v>
+      </c>
+      <c r="I17">
+        <v>0.1321918916295473</v>
+      </c>
+      <c r="J17">
+        <v>0.1321918916295473</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.09855700000000001</v>
+      </c>
+      <c r="N17">
+        <v>0.295671</v>
+      </c>
+      <c r="O17">
+        <v>0.02612292319177979</v>
+      </c>
+      <c r="P17">
+        <v>0.02612292319177979</v>
+      </c>
+      <c r="Q17">
+        <v>0.008053223879333334</v>
+      </c>
+      <c r="R17">
+        <v>0.072479014914</v>
+      </c>
+      <c r="S17">
+        <v>0.003453238631614743</v>
+      </c>
+      <c r="T17">
+        <v>0.003453238631614743</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.08171133333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.245134</v>
+      </c>
+      <c r="I18">
+        <v>0.1321918916295473</v>
+      </c>
+      <c r="J18">
+        <v>0.1321918916295473</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.6060016666666667</v>
+      </c>
+      <c r="N18">
+        <v>1.818005</v>
+      </c>
+      <c r="O18">
+        <v>0.1606231418612973</v>
+      </c>
+      <c r="P18">
+        <v>0.1606231418612973</v>
+      </c>
+      <c r="Q18">
+        <v>0.04951720418555555</v>
+      </c>
+      <c r="R18">
+        <v>0.44565483767</v>
+      </c>
+      <c r="S18">
+        <v>0.02123307696212601</v>
+      </c>
+      <c r="T18">
+        <v>0.02123307696212601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.08171133333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.245134</v>
+      </c>
+      <c r="I19">
+        <v>0.1321918916295473</v>
+      </c>
+      <c r="J19">
+        <v>0.1321918916295473</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.07106366666666666</v>
+      </c>
+      <c r="N19">
+        <v>0.213191</v>
+      </c>
+      <c r="O19">
+        <v>0.01883570630254142</v>
+      </c>
+      <c r="P19">
+        <v>0.01883570630254142</v>
+      </c>
+      <c r="Q19">
+        <v>0.005806706954888888</v>
+      </c>
+      <c r="R19">
+        <v>0.05226036259399999</v>
+      </c>
+      <c r="S19">
+        <v>0.002489927646311538</v>
+      </c>
+      <c r="T19">
+        <v>0.002489927646311538</v>
       </c>
     </row>
   </sheetData>
